--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_07.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_07.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Akira Inoue</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
